--- a/vaccine/KOREI-kenbetsu-vaccination_data.xlsx
+++ b/vaccine/KOREI-kenbetsu-vaccination_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="26" documentId="11_575BEB2D3699AF5ACC109599BC774EFD1F28E611" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{519DA6A6-A6E0-4C82-BA3B-E814DDBCDC15}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="11_575BEB2D3699AF5ACC109599BC774EFD1F28E611" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{238A29AA-927E-4F5A-AAB8-D67EB55166B6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -251,14 +251,14 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>（5月5日時点）</t>
+    <t>（5月16日時点）</t>
     <rPh sb="2" eb="3">
       <t>ガツ</t>
     </rPh>
-    <rPh sb="4" eb="5">
+    <rPh sb="5" eb="6">
       <t>ニチ</t>
     </rPh>
-    <rPh sb="5" eb="7">
+    <rPh sb="6" eb="8">
       <t>ジテン</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -709,16 +709,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="7">
-        <f>SUM(C4:D4)</f>
-        <v>213925</v>
+        <v>981249</v>
       </c>
       <c r="C4" s="7">
-        <f t="shared" ref="C4:D4" si="0">SUM(C5:C51)</f>
-        <v>213925</v>
+        <v>913245</v>
       </c>
       <c r="D4" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>68004</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -726,14 +723,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="7">
-        <f>SUM(C5:D5)</f>
-        <v>4277</v>
+        <v>28860</v>
       </c>
       <c r="C5" s="7">
-        <v>4277</v>
+        <v>27725</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -741,14 +737,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="7">
-        <f t="shared" ref="B6:B51" si="1">SUM(C6:D6)</f>
-        <v>4345</v>
+        <v>16303</v>
       </c>
       <c r="C6" s="7">
-        <v>4345</v>
+        <v>14667</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -756,14 +751,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="7">
-        <f t="shared" si="1"/>
-        <v>4906</v>
+        <v>15658</v>
       </c>
       <c r="C7" s="7">
-        <v>4906</v>
+        <v>13749</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -771,14 +765,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="7">
-        <f t="shared" si="1"/>
-        <v>2934</v>
+        <v>16459</v>
       </c>
       <c r="C8" s="7">
-        <v>2934</v>
+        <v>16203</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -786,14 +779,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="7">
-        <f t="shared" si="1"/>
-        <v>5227</v>
+        <v>19622</v>
       </c>
       <c r="C9" s="7">
-        <v>5227</v>
+        <v>18229</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
@@ -801,14 +793,13 @@
         <v>10</v>
       </c>
       <c r="B10" s="7">
-        <f t="shared" si="1"/>
-        <v>7509</v>
+        <v>22881</v>
       </c>
       <c r="C10" s="7">
-        <v>7509</v>
+        <v>20408</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -816,14 +807,13 @@
         <v>11</v>
       </c>
       <c r="B11" s="7">
-        <f t="shared" si="1"/>
-        <v>5365</v>
+        <v>22831</v>
       </c>
       <c r="C11" s="7">
-        <v>5365</v>
+        <v>22023</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>808</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -831,14 +821,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="7">
-        <f t="shared" si="1"/>
-        <v>3146</v>
+        <v>18825</v>
       </c>
       <c r="C12" s="7">
-        <v>3146</v>
+        <v>18547</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
@@ -846,14 +835,13 @@
         <v>13</v>
       </c>
       <c r="B13" s="7">
-        <f t="shared" si="1"/>
-        <v>2618</v>
+        <v>14102</v>
       </c>
       <c r="C13" s="7">
-        <v>2618</v>
+        <v>13728</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
@@ -861,14 +849,13 @@
         <v>14</v>
       </c>
       <c r="B14" s="7">
-        <f t="shared" si="1"/>
-        <v>4131</v>
+        <v>18385</v>
       </c>
       <c r="C14" s="7">
-        <v>4131</v>
+        <v>16846</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
@@ -876,14 +863,13 @@
         <v>15</v>
       </c>
       <c r="B15" s="7">
-        <f t="shared" si="1"/>
-        <v>2544</v>
+        <v>29226</v>
       </c>
       <c r="C15" s="7">
-        <v>2544</v>
+        <v>28389</v>
       </c>
       <c r="D15" s="7">
-        <v>0</v>
+        <v>837</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
@@ -891,14 +877,13 @@
         <v>16</v>
       </c>
       <c r="B16" s="7">
-        <f t="shared" si="1"/>
-        <v>3596</v>
+        <v>25986</v>
       </c>
       <c r="C16" s="7">
-        <v>3596</v>
+        <v>25425</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>561</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
@@ -906,14 +891,13 @@
         <v>17</v>
       </c>
       <c r="B17" s="7">
-        <f t="shared" si="1"/>
-        <v>7753</v>
+        <v>74841</v>
       </c>
       <c r="C17" s="7">
-        <v>7753</v>
+        <v>72080</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -921,14 +905,13 @@
         <v>18</v>
       </c>
       <c r="B18" s="7">
-        <f t="shared" si="1"/>
-        <v>7967</v>
+        <v>32672</v>
       </c>
       <c r="C18" s="7">
-        <v>7967</v>
+        <v>28913</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>3759</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -936,14 +919,13 @@
         <v>19</v>
       </c>
       <c r="B19" s="7">
-        <f t="shared" si="1"/>
-        <v>5249</v>
+        <v>23874</v>
       </c>
       <c r="C19" s="7">
-        <v>5249</v>
+        <v>21668</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -951,14 +933,13 @@
         <v>20</v>
       </c>
       <c r="B20" s="7">
-        <f t="shared" si="1"/>
-        <v>1396</v>
+        <v>3646</v>
       </c>
       <c r="C20" s="7">
-        <v>1396</v>
+        <v>2966</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>680</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
@@ -966,14 +947,13 @@
         <v>21</v>
       </c>
       <c r="B21" s="7">
-        <f t="shared" si="1"/>
-        <v>6469</v>
+        <v>20847</v>
       </c>
       <c r="C21" s="7">
-        <v>6469</v>
+        <v>17447</v>
       </c>
       <c r="D21" s="7">
-        <v>0</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
@@ -981,14 +961,13 @@
         <v>22</v>
       </c>
       <c r="B22" s="7">
-        <f t="shared" si="1"/>
-        <v>4187</v>
+        <v>11003</v>
       </c>
       <c r="C22" s="7">
-        <v>4187</v>
+        <v>9788</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
@@ -996,14 +975,13 @@
         <v>23</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" si="1"/>
-        <v>3045</v>
+        <v>10883</v>
       </c>
       <c r="C23" s="7">
-        <v>3045</v>
+        <v>9260</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
@@ -1011,14 +989,13 @@
         <v>24</v>
       </c>
       <c r="B24" s="7">
-        <f t="shared" si="1"/>
-        <v>3200</v>
+        <v>23749</v>
       </c>
       <c r="C24" s="7">
-        <v>3200</v>
+        <v>22248</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
@@ -1026,14 +1003,13 @@
         <v>25</v>
       </c>
       <c r="B25" s="7">
-        <f t="shared" si="1"/>
-        <v>4819</v>
+        <v>20143</v>
       </c>
       <c r="C25" s="7">
-        <v>4819</v>
+        <v>18954</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
@@ -1041,14 +1017,13 @@
         <v>26</v>
       </c>
       <c r="B26" s="7">
-        <f t="shared" si="1"/>
-        <v>2963</v>
+        <v>18246</v>
       </c>
       <c r="C26" s="7">
-        <v>2963</v>
+        <v>17722</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>524</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
@@ -1056,14 +1031,13 @@
         <v>27</v>
       </c>
       <c r="B27" s="7">
-        <f t="shared" si="1"/>
-        <v>6405</v>
+        <v>57405</v>
       </c>
       <c r="C27" s="7">
-        <v>6405</v>
+        <v>55296</v>
       </c>
       <c r="D27" s="7">
-        <v>0</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
@@ -1071,14 +1045,13 @@
         <v>28</v>
       </c>
       <c r="B28" s="7">
-        <f t="shared" si="1"/>
-        <v>2596</v>
+        <v>12264</v>
       </c>
       <c r="C28" s="7">
-        <v>2596</v>
+        <v>11582</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>682</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
@@ -1086,14 +1059,13 @@
         <v>29</v>
       </c>
       <c r="B29" s="7">
-        <f t="shared" si="1"/>
-        <v>4658</v>
+        <v>19336</v>
       </c>
       <c r="C29" s="7">
-        <v>4658</v>
+        <v>18598</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>738</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
@@ -1101,14 +1073,13 @@
         <v>30</v>
       </c>
       <c r="B30" s="7">
-        <f t="shared" si="1"/>
-        <v>1785</v>
+        <v>12380</v>
       </c>
       <c r="C30" s="7">
-        <v>1785</v>
+        <v>11696</v>
       </c>
       <c r="D30" s="7">
-        <v>0</v>
+        <v>684</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
@@ -1116,14 +1087,13 @@
         <v>31</v>
       </c>
       <c r="B31" s="7">
-        <f t="shared" si="1"/>
-        <v>9789</v>
+        <v>43549</v>
       </c>
       <c r="C31" s="7">
-        <v>9789</v>
+        <v>40943</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
@@ -1131,14 +1101,13 @@
         <v>32</v>
       </c>
       <c r="B32" s="7">
-        <f t="shared" si="1"/>
-        <v>4474</v>
+        <v>25217</v>
       </c>
       <c r="C32" s="7">
-        <v>4474</v>
+        <v>23688</v>
       </c>
       <c r="D32" s="7">
-        <v>0</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
@@ -1146,14 +1115,13 @@
         <v>33</v>
       </c>
       <c r="B33" s="7">
-        <f t="shared" si="1"/>
-        <v>3659</v>
+        <v>13725</v>
       </c>
       <c r="C33" s="7">
-        <v>3659</v>
+        <v>12575</v>
       </c>
       <c r="D33" s="7">
-        <v>0</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
@@ -1161,14 +1129,13 @@
         <v>34</v>
       </c>
       <c r="B34" s="7">
-        <f t="shared" si="1"/>
-        <v>7449</v>
+        <v>32088</v>
       </c>
       <c r="C34" s="7">
-        <v>7449</v>
+        <v>29270</v>
       </c>
       <c r="D34" s="7">
-        <v>0</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
@@ -1176,14 +1143,13 @@
         <v>35</v>
       </c>
       <c r="B35" s="7">
-        <f t="shared" si="1"/>
-        <v>4641</v>
+        <v>12874</v>
       </c>
       <c r="C35" s="7">
-        <v>4641</v>
+        <v>11010</v>
       </c>
       <c r="D35" s="7">
-        <v>0</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
@@ -1191,14 +1157,13 @@
         <v>36</v>
       </c>
       <c r="B36" s="7">
-        <f t="shared" si="1"/>
-        <v>2989</v>
+        <v>9694</v>
       </c>
       <c r="C36" s="7">
-        <v>2989</v>
+        <v>8891</v>
       </c>
       <c r="D36" s="7">
-        <v>0</v>
+        <v>803</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
@@ -1206,14 +1171,13 @@
         <v>37</v>
       </c>
       <c r="B37" s="7">
-        <f t="shared" si="1"/>
-        <v>1746</v>
+        <v>7204</v>
       </c>
       <c r="C37" s="7">
-        <v>1746</v>
+        <v>6330</v>
       </c>
       <c r="D37" s="7">
-        <v>0</v>
+        <v>874</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
@@ -1221,14 +1185,13 @@
         <v>38</v>
       </c>
       <c r="B38" s="7">
-        <f t="shared" si="1"/>
-        <v>7786</v>
+        <v>21396</v>
       </c>
       <c r="C38" s="7">
-        <v>7786</v>
+        <v>18818</v>
       </c>
       <c r="D38" s="7">
-        <v>0</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
@@ -1236,14 +1199,13 @@
         <v>39</v>
       </c>
       <c r="B39" s="7">
-        <f t="shared" si="1"/>
-        <v>6088</v>
+        <v>33131</v>
       </c>
       <c r="C39" s="7">
-        <v>6088</v>
+        <v>30540</v>
       </c>
       <c r="D39" s="7">
-        <v>0</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
@@ -1251,14 +1213,13 @@
         <v>40</v>
       </c>
       <c r="B40" s="7">
-        <f t="shared" si="1"/>
-        <v>3884</v>
+        <v>11298</v>
       </c>
       <c r="C40" s="7">
-        <v>3884</v>
+        <v>10379</v>
       </c>
       <c r="D40" s="7">
-        <v>0</v>
+        <v>919</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
@@ -1266,14 +1227,13 @@
         <v>41</v>
       </c>
       <c r="B41" s="7">
-        <f t="shared" si="1"/>
-        <v>6524</v>
+        <v>17414</v>
       </c>
       <c r="C41" s="7">
-        <v>6524</v>
+        <v>15070</v>
       </c>
       <c r="D41" s="7">
-        <v>0</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
@@ -1281,14 +1241,13 @@
         <v>42</v>
       </c>
       <c r="B42" s="7">
-        <f t="shared" si="1"/>
-        <v>2447</v>
+        <v>7475</v>
       </c>
       <c r="C42" s="7">
-        <v>2447</v>
+        <v>7052</v>
       </c>
       <c r="D42" s="7">
-        <v>0</v>
+        <v>423</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
@@ -1296,14 +1255,13 @@
         <v>43</v>
       </c>
       <c r="B43" s="7">
-        <f t="shared" si="1"/>
-        <v>4177</v>
+        <v>21852</v>
       </c>
       <c r="C43" s="7">
-        <v>4177</v>
+        <v>20721</v>
       </c>
       <c r="D43" s="7">
-        <v>0</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
@@ -1311,14 +1269,13 @@
         <v>44</v>
       </c>
       <c r="B44" s="7">
-        <f t="shared" si="1"/>
-        <v>4408</v>
+        <v>21929</v>
       </c>
       <c r="C44" s="7">
-        <v>4408</v>
+        <v>20087</v>
       </c>
       <c r="D44" s="7">
-        <v>0</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
@@ -1326,14 +1283,13 @@
         <v>45</v>
       </c>
       <c r="B45" s="7">
-        <f t="shared" si="1"/>
-        <v>4060</v>
+        <v>14126</v>
       </c>
       <c r="C45" s="7">
-        <v>4060</v>
+        <v>12680</v>
       </c>
       <c r="D45" s="7">
-        <v>0</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
@@ -1341,14 +1297,13 @@
         <v>46</v>
       </c>
       <c r="B46" s="7">
-        <f t="shared" si="1"/>
-        <v>5088</v>
+        <v>12265</v>
       </c>
       <c r="C46" s="7">
-        <v>5088</v>
+        <v>10969</v>
       </c>
       <c r="D46" s="7">
-        <v>0</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
@@ -1356,14 +1311,13 @@
         <v>47</v>
       </c>
       <c r="B47" s="7">
-        <f t="shared" si="1"/>
-        <v>4883</v>
+        <v>17603</v>
       </c>
       <c r="C47" s="7">
-        <v>4883</v>
+        <v>16908</v>
       </c>
       <c r="D47" s="7">
-        <v>0</v>
+        <v>695</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
@@ -1371,14 +1325,13 @@
         <v>48</v>
       </c>
       <c r="B48" s="7">
-        <f t="shared" si="1"/>
-        <v>4047</v>
+        <v>13857</v>
       </c>
       <c r="C48" s="7">
-        <v>4047</v>
+        <v>12343</v>
       </c>
       <c r="D48" s="7">
-        <v>0</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
@@ -1386,14 +1339,13 @@
         <v>49</v>
       </c>
       <c r="B49" s="7">
-        <f t="shared" si="1"/>
-        <v>4956</v>
+        <v>19253</v>
       </c>
       <c r="C49" s="7">
-        <v>4956</v>
+        <v>17744</v>
       </c>
       <c r="D49" s="7">
-        <v>0</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
@@ -1401,14 +1353,13 @@
         <v>50</v>
       </c>
       <c r="B50" s="7">
-        <f t="shared" si="1"/>
-        <v>5390</v>
+        <v>22161</v>
       </c>
       <c r="C50" s="7">
-        <v>5390</v>
+        <v>21077</v>
       </c>
       <c r="D50" s="7">
-        <v>0</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
@@ -1416,14 +1367,13 @@
         <v>51</v>
       </c>
       <c r="B51" s="7">
-        <f t="shared" si="1"/>
-        <v>2350</v>
+        <v>12711</v>
       </c>
       <c r="C51" s="7">
-        <v>2350</v>
+        <v>11993</v>
       </c>
       <c r="D51" s="7">
-        <v>0</v>
+        <v>718</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
@@ -1441,4 +1391,372 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E8684AFC7BA4E946AF96F6A5CBEE62BB" ma:contentTypeVersion="31" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="360bff5150e767e125a1564f69a9fd0d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="89559dea-130d-4237-8e78-1ce7f44b9a24" xmlns:ns3="0e1d05ab-b491-48cc-a1d7-91236226a3a4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3bdf01f10b0338da7a5a85bd71431d3e" ns1:_="" ns2:_="" ns3:_="">
+    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
+    <xsd:import namespace="89559dea-130d-4237-8e78-1ce7f44b9a24"/>
+    <xsd:import namespace="0e1d05ab-b491-48cc-a1d7-91236226a3a4"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:_dlc_DocId" minOccurs="0"/>
+                <xsd:element ref="ns2:_dlc_DocIdUrl" minOccurs="0"/>
+                <xsd:element ref="ns2:_dlc_DocIdPersistId" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:d1ca" minOccurs="0"/>
+                <xsd:element ref="ns3:_Flow_SignoffStatus" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="20" nillable="true" ma:displayName="統合コンプライアンス ポリシーのプロパティ" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="21" nillable="true" ma:displayName="統合コンプライアンス ポリシーの UI アクション" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="89559dea-130d-4237-8e78-1ce7f44b9a24" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="_dlc_DocId" ma:index="8" nillable="true" ma:displayName="ドキュメント ID 値" ma:description="このアイテムに割り当てられているドキュメント ID の値です。" ma:internalName="_dlc_DocId" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_dlc_DocIdUrl" ma:index="9" nillable="true" ma:displayName="ドキュメントID:" ma:description="このドキュメントへの常時接続リンクです。" ma:hidden="true" ma:internalName="_dlc_DocIdUrl" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:URL">
+            <xsd:sequence>
+              <xsd:element name="Url" type="dms:ValidUrl" minOccurs="0" nillable="true"/>
+              <xsd:element name="Description" type="xsd:string" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="_dlc_DocIdPersistId" ma:index="10" nillable="true" ma:displayName="ID を保持" ma:description="追加時に ID を保持します。" ma:hidden="true" ma:internalName="_dlc_DocIdPersistId" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Boolean"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="23" nillable="true" ma:displayName="共有相手" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="24" nillable="true" ma:displayName="共有相手の詳細情報" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0e1d05ab-b491-48cc-a1d7-91236226a3a4" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="13" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="14" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="17" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="18" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="19" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="22" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="d1ca" ma:index="25" nillable="true" ma:displayName="数値" ma:internalName="d1ca">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Number"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_Flow_SignoffStatus" ma:index="26" nillable="true" ma:displayName="承認の状態" ma:internalName="_x627f__x8a8d__x306e__x72b6__x614b_">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="27" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="コンテンツ タイプ"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="タイトル"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_dlc_DocId xmlns="89559dea-130d-4237-8e78-1ce7f44b9a24">DIGI-808455956-2816670</_dlc_DocId>
+    <_Flow_SignoffStatus xmlns="0e1d05ab-b491-48cc-a1d7-91236226a3a4" xsi:nil="true"/>
+    <d1ca xmlns="0e1d05ab-b491-48cc-a1d7-91236226a3a4" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_dlc_DocIdUrl xmlns="89559dea-130d-4237-8e78-1ce7f44b9a24">
+      <Url>https://digitalgojp.sharepoint.com/sites/digi_portal/_layouts/15/DocIdRedir.aspx?ID=DIGI-808455956-2816670</Url>
+      <Description>DIGI-808455956-2816670</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98F995E8-2523-442E-93B1-B361918E9CC3}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68590474-484D-4AF3-9C4D-D24DB89AC9B9}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB75F694-B11F-49C8-9F49-6535507472A8}"/>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E0B66FF-191E-435C-A08C-D1FA37F33F6B}"/>
 </file>
--- a/vaccine/KOREI-kenbetsu-vaccination_data.xlsx
+++ b/vaccine/KOREI-kenbetsu-vaccination_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="45" documentId="11_575BEB2D3699AF5ACC109599BC774EFD1F28E611" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{238A29AA-927E-4F5A-AAB8-D67EB55166B6}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="11_575BEB2D3699AF5ACC109599BC774EFD1F28E611" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F8225866-28A8-4373-8A2F-E3B81C4C9FBF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -251,7 +251,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>（5月16日時点）</t>
+    <t>（5月23日時点）</t>
     <rPh sb="2" eb="3">
       <t>ガツ</t>
     </rPh>
@@ -709,13 +709,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="7">
-        <v>981249</v>
+        <v>2339839</v>
       </c>
       <c r="C4" s="7">
-        <v>913245</v>
+        <v>2166240</v>
       </c>
       <c r="D4" s="7">
-        <v>68004</v>
+        <v>173599</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -723,13 +723,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="7">
-        <v>28860</v>
+        <v>77032</v>
       </c>
       <c r="C5" s="7">
-        <v>27725</v>
+        <v>73824</v>
       </c>
       <c r="D5" s="7">
-        <v>1135</v>
+        <v>3208</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -737,13 +737,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="7">
-        <v>16303</v>
+        <v>35397</v>
       </c>
       <c r="C6" s="7">
-        <v>14667</v>
+        <v>31860</v>
       </c>
       <c r="D6" s="7">
-        <v>1636</v>
+        <v>3537</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -751,13 +751,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="7">
-        <v>15658</v>
+        <v>31730</v>
       </c>
       <c r="C7" s="7">
-        <v>13749</v>
+        <v>27629</v>
       </c>
       <c r="D7" s="7">
-        <v>1909</v>
+        <v>4101</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -765,13 +765,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="7">
-        <v>16459</v>
+        <v>34682</v>
       </c>
       <c r="C8" s="7">
-        <v>16203</v>
+        <v>32084</v>
       </c>
       <c r="D8" s="7">
-        <v>256</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -779,13 +779,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="7">
-        <v>19622</v>
+        <v>39375</v>
       </c>
       <c r="C9" s="7">
-        <v>18229</v>
+        <v>35151</v>
       </c>
       <c r="D9" s="7">
-        <v>1393</v>
+        <v>4224</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
@@ -793,13 +793,13 @@
         <v>10</v>
       </c>
       <c r="B10" s="7">
-        <v>22881</v>
+        <v>42135</v>
       </c>
       <c r="C10" s="7">
-        <v>20408</v>
+        <v>36204</v>
       </c>
       <c r="D10" s="7">
-        <v>2473</v>
+        <v>5931</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -807,13 +807,13 @@
         <v>11</v>
       </c>
       <c r="B11" s="7">
-        <v>22831</v>
+        <v>50468</v>
       </c>
       <c r="C11" s="7">
-        <v>22023</v>
+        <v>47289</v>
       </c>
       <c r="D11" s="7">
-        <v>808</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -821,13 +821,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="7">
-        <v>18825</v>
+        <v>40594</v>
       </c>
       <c r="C12" s="7">
-        <v>18547</v>
+        <v>39534</v>
       </c>
       <c r="D12" s="7">
-        <v>278</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
@@ -835,13 +835,13 @@
         <v>13</v>
       </c>
       <c r="B13" s="7">
-        <v>14102</v>
+        <v>26648</v>
       </c>
       <c r="C13" s="7">
-        <v>13728</v>
+        <v>24309</v>
       </c>
       <c r="D13" s="7">
-        <v>374</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
@@ -849,13 +849,13 @@
         <v>14</v>
       </c>
       <c r="B14" s="7">
-        <v>18385</v>
+        <v>43659</v>
       </c>
       <c r="C14" s="7">
-        <v>16846</v>
+        <v>40045</v>
       </c>
       <c r="D14" s="7">
-        <v>1539</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
@@ -863,13 +863,13 @@
         <v>15</v>
       </c>
       <c r="B15" s="7">
-        <v>29226</v>
+        <v>87843</v>
       </c>
       <c r="C15" s="7">
-        <v>28389</v>
+        <v>86265</v>
       </c>
       <c r="D15" s="7">
-        <v>837</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
@@ -877,13 +877,13 @@
         <v>16</v>
       </c>
       <c r="B16" s="7">
-        <v>25986</v>
+        <v>77135</v>
       </c>
       <c r="C16" s="7">
-        <v>25425</v>
+        <v>73865</v>
       </c>
       <c r="D16" s="7">
-        <v>561</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
@@ -891,13 +891,13 @@
         <v>17</v>
       </c>
       <c r="B17" s="7">
-        <v>74841</v>
+        <v>211969</v>
       </c>
       <c r="C17" s="7">
-        <v>72080</v>
+        <v>206207</v>
       </c>
       <c r="D17" s="7">
-        <v>2761</v>
+        <v>5762</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -905,13 +905,13 @@
         <v>18</v>
       </c>
       <c r="B18" s="7">
-        <v>32672</v>
+        <v>114365</v>
       </c>
       <c r="C18" s="7">
-        <v>28913</v>
+        <v>107005</v>
       </c>
       <c r="D18" s="7">
-        <v>3759</v>
+        <v>7360</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -919,13 +919,13 @@
         <v>19</v>
       </c>
       <c r="B19" s="7">
-        <v>23874</v>
+        <v>50811</v>
       </c>
       <c r="C19" s="7">
-        <v>21668</v>
+        <v>46739</v>
       </c>
       <c r="D19" s="7">
-        <v>2206</v>
+        <v>4072</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -933,13 +933,13 @@
         <v>20</v>
       </c>
       <c r="B20" s="7">
-        <v>3646</v>
+        <v>16537</v>
       </c>
       <c r="C20" s="7">
-        <v>2966</v>
+        <v>15187</v>
       </c>
       <c r="D20" s="7">
-        <v>680</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
@@ -947,13 +947,13 @@
         <v>21</v>
       </c>
       <c r="B21" s="7">
-        <v>20847</v>
+        <v>41479</v>
       </c>
       <c r="C21" s="7">
-        <v>17447</v>
+        <v>35283</v>
       </c>
       <c r="D21" s="7">
-        <v>3400</v>
+        <v>6196</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
@@ -961,13 +961,13 @@
         <v>22</v>
       </c>
       <c r="B22" s="7">
-        <v>11003</v>
+        <v>24133</v>
       </c>
       <c r="C22" s="7">
-        <v>9788</v>
+        <v>20716</v>
       </c>
       <c r="D22" s="7">
-        <v>1215</v>
+        <v>3417</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
@@ -975,13 +975,13 @@
         <v>23</v>
       </c>
       <c r="B23" s="7">
-        <v>10883</v>
+        <v>19192</v>
       </c>
       <c r="C23" s="7">
-        <v>9260</v>
+        <v>16006</v>
       </c>
       <c r="D23" s="7">
-        <v>1623</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
@@ -989,13 +989,13 @@
         <v>24</v>
       </c>
       <c r="B24" s="7">
-        <v>23749</v>
+        <v>49169</v>
       </c>
       <c r="C24" s="7">
-        <v>22248</v>
+        <v>45534</v>
       </c>
       <c r="D24" s="7">
-        <v>1501</v>
+        <v>3635</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
@@ -1003,13 +1003,13 @@
         <v>25</v>
       </c>
       <c r="B25" s="7">
-        <v>20143</v>
+        <v>43470</v>
       </c>
       <c r="C25" s="7">
-        <v>18954</v>
+        <v>39731</v>
       </c>
       <c r="D25" s="7">
-        <v>1189</v>
+        <v>3739</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
@@ -1017,13 +1017,13 @@
         <v>26</v>
       </c>
       <c r="B26" s="7">
-        <v>18246</v>
+        <v>51012</v>
       </c>
       <c r="C26" s="7">
-        <v>17722</v>
+        <v>48942</v>
       </c>
       <c r="D26" s="7">
-        <v>524</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
@@ -1031,13 +1031,13 @@
         <v>27</v>
       </c>
       <c r="B27" s="7">
-        <v>57405</v>
+        <v>118896</v>
       </c>
       <c r="C27" s="7">
-        <v>55296</v>
+        <v>113463</v>
       </c>
       <c r="D27" s="7">
-        <v>2109</v>
+        <v>5433</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
@@ -1045,13 +1045,13 @@
         <v>28</v>
       </c>
       <c r="B28" s="7">
-        <v>12264</v>
+        <v>26415</v>
       </c>
       <c r="C28" s="7">
-        <v>11582</v>
+        <v>24552</v>
       </c>
       <c r="D28" s="7">
-        <v>682</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
@@ -1059,13 +1059,13 @@
         <v>29</v>
       </c>
       <c r="B29" s="7">
-        <v>19336</v>
+        <v>37002</v>
       </c>
       <c r="C29" s="7">
-        <v>18598</v>
+        <v>34011</v>
       </c>
       <c r="D29" s="7">
-        <v>738</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
@@ -1073,13 +1073,13 @@
         <v>30</v>
       </c>
       <c r="B30" s="7">
-        <v>12380</v>
+        <v>49415</v>
       </c>
       <c r="C30" s="7">
-        <v>11696</v>
+        <v>47354</v>
       </c>
       <c r="D30" s="7">
-        <v>684</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
@@ -1087,13 +1087,13 @@
         <v>31</v>
       </c>
       <c r="B31" s="7">
-        <v>43549</v>
+        <v>115756</v>
       </c>
       <c r="C31" s="7">
-        <v>40943</v>
+        <v>108816</v>
       </c>
       <c r="D31" s="7">
-        <v>2606</v>
+        <v>6940</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
@@ -1101,13 +1101,13 @@
         <v>32</v>
       </c>
       <c r="B32" s="7">
-        <v>25217</v>
+        <v>76811</v>
       </c>
       <c r="C32" s="7">
-        <v>23688</v>
+        <v>72782</v>
       </c>
       <c r="D32" s="7">
-        <v>1529</v>
+        <v>4029</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
@@ -1115,13 +1115,13 @@
         <v>33</v>
       </c>
       <c r="B33" s="7">
-        <v>13725</v>
+        <v>24181</v>
       </c>
       <c r="C33" s="7">
-        <v>12575</v>
+        <v>21537</v>
       </c>
       <c r="D33" s="7">
-        <v>1150</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
@@ -1129,13 +1129,13 @@
         <v>34</v>
       </c>
       <c r="B34" s="7">
-        <v>32088</v>
+        <v>62030</v>
       </c>
       <c r="C34" s="7">
-        <v>29270</v>
+        <v>53976</v>
       </c>
       <c r="D34" s="7">
-        <v>2818</v>
+        <v>8054</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
@@ -1143,13 +1143,13 @@
         <v>35</v>
       </c>
       <c r="B35" s="7">
-        <v>12874</v>
+        <v>24468</v>
       </c>
       <c r="C35" s="7">
-        <v>11010</v>
+        <v>20196</v>
       </c>
       <c r="D35" s="7">
-        <v>1864</v>
+        <v>4272</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
@@ -1157,13 +1157,13 @@
         <v>36</v>
       </c>
       <c r="B36" s="7">
-        <v>9694</v>
+        <v>17454</v>
       </c>
       <c r="C36" s="7">
-        <v>8891</v>
+        <v>14803</v>
       </c>
       <c r="D36" s="7">
-        <v>803</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
@@ -1171,13 +1171,13 @@
         <v>37</v>
       </c>
       <c r="B37" s="7">
-        <v>7204</v>
+        <v>46152</v>
       </c>
       <c r="C37" s="7">
-        <v>6330</v>
+        <v>43884</v>
       </c>
       <c r="D37" s="7">
-        <v>874</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
@@ -1185,13 +1185,13 @@
         <v>38</v>
       </c>
       <c r="B38" s="7">
-        <v>21396</v>
+        <v>46554</v>
       </c>
       <c r="C38" s="7">
-        <v>18818</v>
+        <v>40322</v>
       </c>
       <c r="D38" s="7">
-        <v>2578</v>
+        <v>6232</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
@@ -1199,13 +1199,13 @@
         <v>39</v>
       </c>
       <c r="B39" s="7">
-        <v>33131</v>
+        <v>72126</v>
       </c>
       <c r="C39" s="7">
-        <v>30540</v>
+        <v>66402</v>
       </c>
       <c r="D39" s="7">
-        <v>2591</v>
+        <v>5724</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
@@ -1213,13 +1213,13 @@
         <v>40</v>
       </c>
       <c r="B40" s="7">
-        <v>11298</v>
+        <v>22282</v>
       </c>
       <c r="C40" s="7">
-        <v>10379</v>
+        <v>19318</v>
       </c>
       <c r="D40" s="7">
-        <v>919</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
@@ -1227,13 +1227,13 @@
         <v>41</v>
       </c>
       <c r="B41" s="7">
-        <v>17414</v>
+        <v>31338</v>
       </c>
       <c r="C41" s="7">
-        <v>15070</v>
+        <v>25644</v>
       </c>
       <c r="D41" s="7">
-        <v>2344</v>
+        <v>5694</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
@@ -1241,13 +1241,13 @@
         <v>42</v>
       </c>
       <c r="B42" s="7">
-        <v>7475</v>
+        <v>15468</v>
       </c>
       <c r="C42" s="7">
-        <v>7052</v>
+        <v>13933</v>
       </c>
       <c r="D42" s="7">
-        <v>423</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
@@ -1255,13 +1255,13 @@
         <v>43</v>
       </c>
       <c r="B43" s="7">
-        <v>21852</v>
+        <v>32500</v>
       </c>
       <c r="C43" s="7">
-        <v>20721</v>
+        <v>29580</v>
       </c>
       <c r="D43" s="7">
-        <v>1131</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
@@ -1269,13 +1269,13 @@
         <v>44</v>
       </c>
       <c r="B44" s="7">
-        <v>21929</v>
+        <v>73442</v>
       </c>
       <c r="C44" s="7">
-        <v>20087</v>
+        <v>70888</v>
       </c>
       <c r="D44" s="7">
-        <v>1842</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
@@ -1283,13 +1283,13 @@
         <v>45</v>
       </c>
       <c r="B45" s="7">
-        <v>14126</v>
+        <v>29319</v>
       </c>
       <c r="C45" s="7">
-        <v>12680</v>
+        <v>26519</v>
       </c>
       <c r="D45" s="7">
-        <v>1446</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
@@ -1297,13 +1297,13 @@
         <v>46</v>
       </c>
       <c r="B46" s="7">
-        <v>12265</v>
+        <v>23024</v>
       </c>
       <c r="C46" s="7">
-        <v>10969</v>
+        <v>19903</v>
       </c>
       <c r="D46" s="7">
-        <v>1296</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
@@ -1311,13 +1311,13 @@
         <v>47</v>
       </c>
       <c r="B47" s="7">
-        <v>17603</v>
+        <v>38347</v>
       </c>
       <c r="C47" s="7">
-        <v>16908</v>
+        <v>35128</v>
       </c>
       <c r="D47" s="7">
-        <v>695</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
@@ -1325,13 +1325,13 @@
         <v>48</v>
       </c>
       <c r="B48" s="7">
-        <v>13857</v>
+        <v>30075</v>
       </c>
       <c r="C48" s="7">
-        <v>12343</v>
+        <v>26321</v>
       </c>
       <c r="D48" s="7">
-        <v>1514</v>
+        <v>3754</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
@@ -1339,13 +1339,13 @@
         <v>49</v>
       </c>
       <c r="B49" s="7">
-        <v>19253</v>
+        <v>43108</v>
       </c>
       <c r="C49" s="7">
-        <v>17744</v>
+        <v>38662</v>
       </c>
       <c r="D49" s="7">
-        <v>1509</v>
+        <v>4446</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
@@ -1353,13 +1353,13 @@
         <v>50</v>
       </c>
       <c r="B50" s="7">
-        <v>22161</v>
+        <v>48265</v>
       </c>
       <c r="C50" s="7">
-        <v>21077</v>
+        <v>44578</v>
       </c>
       <c r="D50" s="7">
-        <v>1084</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
@@ -1367,13 +1367,13 @@
         <v>51</v>
       </c>
       <c r="B51" s="7">
-        <v>12711</v>
+        <v>26576</v>
       </c>
       <c r="C51" s="7">
-        <v>11993</v>
+        <v>24259</v>
       </c>
       <c r="D51" s="7">
-        <v>718</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
@@ -1732,7 +1732,6 @@
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <_dlc_DocId xmlns="89559dea-130d-4237-8e78-1ce7f44b9a24">DIGI-808455956-2816670</_dlc_DocId>
     <_Flow_SignoffStatus xmlns="0e1d05ab-b491-48cc-a1d7-91236226a3a4" xsi:nil="true"/>
     <d1ca xmlns="0e1d05ab-b491-48cc-a1d7-91236226a3a4" xsi:nil="true"/>
@@ -1741,22 +1740,23 @@
       <Url>https://digitalgojp.sharepoint.com/sites/digi_portal/_layouts/15/DocIdRedir.aspx?ID=DIGI-808455956-2816670</Url>
       <Description>DIGI-808455956-2816670</Description>
     </_dlc_DocIdUrl>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98F995E8-2523-442E-93B1-B361918E9CC3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4D91A02-CD58-410B-82B1-D770E764B5CD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68590474-484D-4AF3-9C4D-D24DB89AC9B9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{760B13FB-A057-4B52-851F-9DDD0C47BC62}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB75F694-B11F-49C8-9F49-6535507472A8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9DC1D84-45B0-4225-8FDF-63E14962B6DC}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E0B66FF-191E-435C-A08C-D1FA37F33F6B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A6596D9-7F81-4FD3-BB54-E1808AE287C2}"/>
 </file>
--- a/vaccine/KOREI-kenbetsu-vaccination_data.xlsx
+++ b/vaccine/KOREI-kenbetsu-vaccination_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="50" documentId="11_575BEB2D3699AF5ACC109599BC774EFD1F28E611" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F8225866-28A8-4373-8A2F-E3B81C4C9FBF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7A945B-CBD6-448F-B039-F7E2AE9D23F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1428" yWindow="1428" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="高齢者等" sheetId="3" r:id="rId1"/>
@@ -251,7 +251,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>（5月23日時点）</t>
+    <t>（5月30日時点）</t>
     <rPh sb="2" eb="3">
       <t>ガツ</t>
     </rPh>
@@ -667,16 +667,18 @@
   </sheetPr>
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.75" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="3" customWidth="1"/>
-    <col min="3" max="4" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="12.69921875" customWidth="1"/>
+    <col min="2" max="2" width="14.09765625" style="3" customWidth="1"/>
+    <col min="3" max="4" width="13.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
@@ -684,13 +686,13 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B2"/>
       <c r="D2" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -704,684 +706,734 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="7">
-        <v>2339839</v>
+        <f>SUM(B5:B51)</f>
+        <v>4982708</v>
       </c>
       <c r="C4" s="7">
-        <v>2166240</v>
+        <f t="shared" ref="C4:D4" si="0">SUM(C5:C51)</f>
+        <v>4661390</v>
       </c>
       <c r="D4" s="7">
-        <v>173599</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <f t="shared" si="0"/>
+        <v>321318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="7">
-        <v>77032</v>
+        <f>SUM(C5:D5)</f>
+        <v>159772</v>
       </c>
       <c r="C5" s="7">
-        <v>73824</v>
+        <v>153300</v>
       </c>
       <c r="D5" s="7">
-        <v>3208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+        <v>6472</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="7">
-        <v>35397</v>
+        <f t="shared" ref="B6:B51" si="1">SUM(C6:D6)</f>
+        <v>71899</v>
       </c>
       <c r="C6" s="7">
-        <v>31860</v>
+        <v>65360</v>
       </c>
       <c r="D6" s="7">
-        <v>3537</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+        <v>6539</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="7">
-        <v>31730</v>
+        <f t="shared" si="1"/>
+        <v>57270</v>
       </c>
       <c r="C7" s="7">
-        <v>27629</v>
+        <v>51143</v>
       </c>
       <c r="D7" s="7">
-        <v>4101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+        <v>6127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="7">
-        <v>34682</v>
+        <f t="shared" si="1"/>
+        <v>85942</v>
       </c>
       <c r="C8" s="7">
-        <v>32084</v>
+        <v>80549</v>
       </c>
       <c r="D8" s="7">
-        <v>2598</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+        <v>5393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="7">
-        <v>39375</v>
+        <f t="shared" si="1"/>
+        <v>64102</v>
       </c>
       <c r="C9" s="7">
-        <v>35151</v>
+        <v>56878</v>
       </c>
       <c r="D9" s="7">
-        <v>4224</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+        <v>7224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="7">
-        <v>42135</v>
+        <f t="shared" si="1"/>
+        <v>76427</v>
       </c>
       <c r="C10" s="7">
-        <v>36204</v>
+        <v>64859</v>
       </c>
       <c r="D10" s="7">
-        <v>5931</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+        <v>11568</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="7">
-        <v>50468</v>
+        <f t="shared" si="1"/>
+        <v>117741</v>
       </c>
       <c r="C11" s="7">
-        <v>47289</v>
+        <v>107461</v>
       </c>
       <c r="D11" s="7">
-        <v>3179</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+        <v>10280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="7">
-        <v>40594</v>
+        <f t="shared" si="1"/>
+        <v>91335</v>
       </c>
       <c r="C12" s="7">
-        <v>39534</v>
+        <v>86824</v>
       </c>
       <c r="D12" s="7">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+        <v>4511</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="7">
-        <v>26648</v>
+        <f t="shared" si="1"/>
+        <v>53183</v>
       </c>
       <c r="C13" s="7">
-        <v>24309</v>
+        <v>49004</v>
       </c>
       <c r="D13" s="7">
-        <v>2339</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+        <v>4179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="7">
-        <v>43659</v>
+        <f t="shared" si="1"/>
+        <v>88733</v>
       </c>
       <c r="C14" s="7">
-        <v>40045</v>
+        <v>83063</v>
       </c>
       <c r="D14" s="7">
-        <v>3614</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+        <v>5670</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="7">
-        <v>87843</v>
+        <f t="shared" si="1"/>
+        <v>217007</v>
       </c>
       <c r="C15" s="7">
-        <v>86265</v>
+        <v>210527</v>
       </c>
       <c r="D15" s="7">
-        <v>1578</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+        <v>6480</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="7">
-        <v>77135</v>
+        <f t="shared" si="1"/>
+        <v>195657</v>
       </c>
       <c r="C16" s="7">
-        <v>73865</v>
+        <v>188929</v>
       </c>
       <c r="D16" s="7">
-        <v>3270</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+        <v>6728</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="7">
-        <v>211969</v>
+        <f t="shared" si="1"/>
+        <v>491790</v>
       </c>
       <c r="C17" s="7">
-        <v>206207</v>
+        <v>474487</v>
       </c>
       <c r="D17" s="7">
-        <v>5762</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+        <v>17303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="7">
-        <v>114365</v>
+        <f t="shared" si="1"/>
+        <v>232487</v>
       </c>
       <c r="C18" s="7">
-        <v>107005</v>
+        <v>223193</v>
       </c>
       <c r="D18" s="7">
-        <v>7360</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+        <v>9294</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="7">
-        <v>50811</v>
+        <f t="shared" si="1"/>
+        <v>106489</v>
       </c>
       <c r="C19" s="7">
-        <v>46739</v>
+        <v>99019</v>
       </c>
       <c r="D19" s="7">
-        <v>4072</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+        <v>7470</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="7">
-        <v>16537</v>
+        <f t="shared" si="1"/>
+        <v>43191</v>
       </c>
       <c r="C20" s="7">
-        <v>15187</v>
+        <v>41305</v>
       </c>
       <c r="D20" s="7">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="7">
-        <v>41479</v>
+        <f t="shared" si="1"/>
+        <v>75243</v>
       </c>
       <c r="C21" s="7">
-        <v>35283</v>
+        <v>66261</v>
       </c>
       <c r="D21" s="7">
-        <v>6196</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+        <v>8982</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="7">
-        <v>24133</v>
+        <f t="shared" si="1"/>
+        <v>46319</v>
       </c>
       <c r="C22" s="7">
-        <v>20716</v>
+        <v>41095</v>
       </c>
       <c r="D22" s="7">
-        <v>3417</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+        <v>5224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="7">
-        <v>19192</v>
+        <f t="shared" si="1"/>
+        <v>36042</v>
       </c>
       <c r="C23" s="7">
-        <v>16006</v>
+        <v>31752</v>
       </c>
       <c r="D23" s="7">
-        <v>3186</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="7">
-        <v>49169</v>
+        <f t="shared" si="1"/>
+        <v>96167</v>
       </c>
       <c r="C24" s="7">
-        <v>45534</v>
+        <v>88108</v>
       </c>
       <c r="D24" s="7">
-        <v>3635</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+        <v>8059</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="7">
-        <v>43470</v>
+        <f t="shared" si="1"/>
+        <v>101777</v>
       </c>
       <c r="C25" s="7">
-        <v>39731</v>
+        <v>95506</v>
       </c>
       <c r="D25" s="7">
-        <v>3739</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+        <v>6271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="7">
-        <v>51012</v>
+        <f t="shared" si="1"/>
+        <v>114538</v>
       </c>
       <c r="C26" s="7">
-        <v>48942</v>
+        <v>110260</v>
       </c>
       <c r="D26" s="7">
-        <v>2070</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+        <v>4278</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="7">
-        <v>118896</v>
+        <f t="shared" si="1"/>
+        <v>288226</v>
       </c>
       <c r="C27" s="7">
-        <v>113463</v>
+        <v>276537</v>
       </c>
       <c r="D27" s="7">
-        <v>5433</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+        <v>11689</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="7">
-        <v>26415</v>
+        <f t="shared" si="1"/>
+        <v>44789</v>
       </c>
       <c r="C28" s="7">
-        <v>24552</v>
+        <v>41414</v>
       </c>
       <c r="D28" s="7">
-        <v>1863</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="7">
-        <v>37002</v>
+        <f t="shared" si="1"/>
+        <v>63064</v>
       </c>
       <c r="C29" s="7">
-        <v>34011</v>
+        <v>57638</v>
       </c>
       <c r="D29" s="7">
-        <v>2991</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+        <v>5426</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="7">
-        <v>49415</v>
+        <f t="shared" si="1"/>
+        <v>117876</v>
       </c>
       <c r="C30" s="7">
-        <v>47354</v>
+        <v>114859</v>
       </c>
       <c r="D30" s="7">
-        <v>2061</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="7">
-        <v>115756</v>
+        <f t="shared" si="1"/>
+        <v>292376</v>
       </c>
       <c r="C31" s="7">
-        <v>108816</v>
+        <v>275758</v>
       </c>
       <c r="D31" s="7">
-        <v>6940</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+        <v>16618</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="7">
-        <v>76811</v>
+        <f t="shared" si="1"/>
+        <v>160582</v>
       </c>
       <c r="C32" s="7">
-        <v>72782</v>
+        <v>150640</v>
       </c>
       <c r="D32" s="7">
-        <v>4029</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+        <v>9942</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="7">
-        <v>24181</v>
+        <f t="shared" si="1"/>
+        <v>50154</v>
       </c>
       <c r="C33" s="7">
-        <v>21537</v>
+        <v>46056</v>
       </c>
       <c r="D33" s="7">
-        <v>2644</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+        <v>4098</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="7">
-        <v>62030</v>
+        <f t="shared" si="1"/>
+        <v>95086</v>
       </c>
       <c r="C34" s="7">
-        <v>53976</v>
+        <v>82842</v>
       </c>
       <c r="D34" s="7">
-        <v>8054</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+        <v>12244</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="7">
-        <v>24468</v>
+        <f t="shared" si="1"/>
+        <v>46337</v>
       </c>
       <c r="C35" s="7">
-        <v>20196</v>
+        <v>39814</v>
       </c>
       <c r="D35" s="7">
-        <v>4272</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+        <v>6523</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="7">
-        <v>17454</v>
+        <f t="shared" si="1"/>
+        <v>35118</v>
       </c>
       <c r="C36" s="7">
-        <v>14803</v>
+        <v>30834</v>
       </c>
       <c r="D36" s="7">
-        <v>2651</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="7">
-        <v>46152</v>
+        <f t="shared" si="1"/>
+        <v>114956</v>
       </c>
       <c r="C37" s="7">
-        <v>43884</v>
+        <v>111048</v>
       </c>
       <c r="D37" s="7">
-        <v>2268</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+        <v>3908</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="7">
-        <v>46554</v>
+        <f t="shared" si="1"/>
+        <v>98113</v>
       </c>
       <c r="C38" s="7">
-        <v>40322</v>
+        <v>88337</v>
       </c>
       <c r="D38" s="7">
-        <v>6232</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+        <v>9776</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B39" s="7">
-        <v>72126</v>
+        <f t="shared" si="1"/>
+        <v>121114</v>
       </c>
       <c r="C39" s="7">
-        <v>66402</v>
+        <v>114017</v>
       </c>
       <c r="D39" s="7">
-        <v>5724</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+        <v>7097</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B40" s="7">
-        <v>22282</v>
+        <f t="shared" si="1"/>
+        <v>40125</v>
       </c>
       <c r="C40" s="7">
-        <v>19318</v>
+        <v>35639</v>
       </c>
       <c r="D40" s="7">
-        <v>2964</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+        <v>4486</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B41" s="7">
-        <v>31338</v>
+        <f t="shared" si="1"/>
+        <v>52372</v>
       </c>
       <c r="C41" s="7">
-        <v>25644</v>
+        <v>43496</v>
       </c>
       <c r="D41" s="7">
-        <v>5694</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+        <v>8876</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B42" s="7">
-        <v>15468</v>
+        <f t="shared" si="1"/>
+        <v>46755</v>
       </c>
       <c r="C42" s="7">
-        <v>13933</v>
+        <v>43033</v>
       </c>
       <c r="D42" s="7">
-        <v>1535</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+        <v>3722</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B43" s="7">
-        <v>32500</v>
+        <f t="shared" si="1"/>
+        <v>60156</v>
       </c>
       <c r="C43" s="7">
-        <v>29580</v>
+        <v>55144</v>
       </c>
       <c r="D43" s="7">
-        <v>2920</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+        <v>5012</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B44" s="7">
-        <v>73442</v>
+        <f t="shared" si="1"/>
+        <v>182831</v>
       </c>
       <c r="C44" s="7">
-        <v>70888</v>
+        <v>177298</v>
       </c>
       <c r="D44" s="7">
-        <v>2554</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+        <v>5533</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B45" s="7">
-        <v>29319</v>
+        <f t="shared" si="1"/>
+        <v>59346</v>
       </c>
       <c r="C45" s="7">
-        <v>26519</v>
+        <v>55072</v>
       </c>
       <c r="D45" s="7">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+        <v>4274</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B46" s="7">
-        <v>23024</v>
+        <f t="shared" si="1"/>
+        <v>50277</v>
       </c>
       <c r="C46" s="7">
-        <v>19903</v>
+        <v>43273</v>
       </c>
       <c r="D46" s="7">
-        <v>3121</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+        <v>7004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B47" s="7">
-        <v>38347</v>
+        <f t="shared" si="1"/>
+        <v>72923</v>
       </c>
       <c r="C47" s="7">
-        <v>35128</v>
+        <v>66508</v>
       </c>
       <c r="D47" s="7">
-        <v>3219</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+        <v>6415</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B48" s="7">
-        <v>30075</v>
+        <f t="shared" si="1"/>
+        <v>57297</v>
       </c>
       <c r="C48" s="7">
-        <v>26321</v>
+        <v>51392</v>
       </c>
       <c r="D48" s="7">
-        <v>3754</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+        <v>5905</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B49" s="7">
-        <v>43108</v>
+        <f t="shared" si="1"/>
+        <v>79999</v>
       </c>
       <c r="C49" s="7">
-        <v>38662</v>
+        <v>73604</v>
       </c>
       <c r="D49" s="7">
-        <v>4446</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+        <v>6395</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B50" s="7">
-        <v>48265</v>
+        <f t="shared" si="1"/>
+        <v>80654</v>
       </c>
       <c r="C50" s="7">
-        <v>44578</v>
+        <v>73791</v>
       </c>
       <c r="D50" s="7">
-        <v>3687</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+        <v>6863</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B51" s="7">
-        <v>26576</v>
+        <f t="shared" si="1"/>
+        <v>49071</v>
       </c>
       <c r="C51" s="7">
-        <v>24259</v>
+        <v>44463</v>
       </c>
       <c r="D51" s="7">
-        <v>2317</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+        <v>4608</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="9" t="s">
         <v>52</v>
       </c>
@@ -1391,372 +1443,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E8684AFC7BA4E946AF96F6A5CBEE62BB" ma:contentTypeVersion="31" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="360bff5150e767e125a1564f69a9fd0d">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="89559dea-130d-4237-8e78-1ce7f44b9a24" xmlns:ns3="0e1d05ab-b491-48cc-a1d7-91236226a3a4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3bdf01f10b0338da7a5a85bd71431d3e" ns1:_="" ns2:_="" ns3:_="">
-    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
-    <xsd:import namespace="89559dea-130d-4237-8e78-1ce7f44b9a24"/>
-    <xsd:import namespace="0e1d05ab-b491-48cc-a1d7-91236226a3a4"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:_dlc_DocId" minOccurs="0"/>
-                <xsd:element ref="ns2:_dlc_DocIdUrl" minOccurs="0"/>
-                <xsd:element ref="ns2:_dlc_DocIdPersistId" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
-                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns3:d1ca" minOccurs="0"/>
-                <xsd:element ref="ns3:_Flow_SignoffStatus" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="20" nillable="true" ma:displayName="統合コンプライアンス ポリシーのプロパティ" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="21" nillable="true" ma:displayName="統合コンプライアンス ポリシーの UI アクション" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="89559dea-130d-4237-8e78-1ce7f44b9a24" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="_dlc_DocId" ma:index="8" nillable="true" ma:displayName="ドキュメント ID 値" ma:description="このアイテムに割り当てられているドキュメント ID の値です。" ma:internalName="_dlc_DocId" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="_dlc_DocIdUrl" ma:index="9" nillable="true" ma:displayName="ドキュメントID:" ma:description="このドキュメントへの常時接続リンクです。" ma:hidden="true" ma:internalName="_dlc_DocIdUrl" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:URL">
-            <xsd:sequence>
-              <xsd:element name="Url" type="dms:ValidUrl" minOccurs="0" nillable="true"/>
-              <xsd:element name="Description" type="xsd:string" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="_dlc_DocIdPersistId" ma:index="10" nillable="true" ma:displayName="ID を保持" ma:description="追加時に ID を保持します。" ma:hidden="true" ma:internalName="_dlc_DocIdPersistId" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="23" nillable="true" ma:displayName="共有相手" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="24" nillable="true" ma:displayName="共有相手の詳細情報" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0e1d05ab-b491-48cc-a1d7-91236226a3a4" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="13" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="14" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="17" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="18" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="19" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="22" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="d1ca" ma:index="25" nillable="true" ma:displayName="数値" ma:internalName="d1ca">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Number"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="_Flow_SignoffStatus" ma:index="26" nillable="true" ma:displayName="承認の状態" ma:internalName="_x627f__x8a8d__x306e__x72b6__x614b_">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="27" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="コンテンツ タイプ"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="タイトル"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="89559dea-130d-4237-8e78-1ce7f44b9a24">DIGI-808455956-2816670</_dlc_DocId>
-    <_Flow_SignoffStatus xmlns="0e1d05ab-b491-48cc-a1d7-91236226a3a4" xsi:nil="true"/>
-    <d1ca xmlns="0e1d05ab-b491-48cc-a1d7-91236226a3a4" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_dlc_DocIdUrl xmlns="89559dea-130d-4237-8e78-1ce7f44b9a24">
-      <Url>https://digitalgojp.sharepoint.com/sites/digi_portal/_layouts/15/DocIdRedir.aspx?ID=DIGI-808455956-2816670</Url>
-      <Description>DIGI-808455956-2816670</Description>
-    </_dlc_DocIdUrl>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4D91A02-CD58-410B-82B1-D770E764B5CD}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{760B13FB-A057-4B52-851F-9DDD0C47BC62}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9DC1D84-45B0-4225-8FDF-63E14962B6DC}"/>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A6596D9-7F81-4FD3-BB54-E1808AE287C2}"/>
 </file>